--- a/Doc/sprints/03_e_04/CRC.xlsx
+++ b/Doc/sprints/03_e_04/CRC.xlsx
@@ -131,7 +131,7 @@
     <t>adiciona crimes específicos</t>
   </si>
   <si>
-    <t>CrimeEspecífico</t>
+    <t>CrimeEspecifico</t>
   </si>
 </sst>
 </file>
@@ -196,10 +196,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,16 +519,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -595,10 +595,10 @@
       <c r="C15" s="1"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -625,10 +625,10 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -653,10 +653,10 @@
       <c r="C27" s="1"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -689,10 +689,10 @@
       <c r="C35" s="4"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
@@ -707,10 +707,10 @@
       <c r="C39" s="4"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
@@ -729,10 +729,10 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
